--- a/面談予約sys設計書_最新.xlsx
+++ b/面談予約sys設計書_最新.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{329215BE-5E9B-4801-822A-F40D03465BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA2AD7FB-9C28-4694-AAF3-343E4F898CCC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEB79BB-A17A-4385-BD73-C74BCDA509A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12228" windowHeight="8700" firstSheet="2" activeTab="2" xr2:uid="{8EFF6374-FE84-406B-8CFA-A29E539342B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="8700" firstSheet="2" activeTab="2" xr2:uid="{8EFF6374-FE84-406B-8CFA-A29E539342B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース図" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7587,7 +7587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7889,31 +7889,31 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
       <c r="M19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7933,7 +7933,7 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
@@ -7943,7 +7943,7 @@
     <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -7953,7 +7953,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7961,7 +7961,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8129,7 +8129,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8137,7 +8137,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -8155,7 +8155,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.75">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.75">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.75">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
@@ -8299,8 +8299,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75"/>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -8308,13 +8307,13 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -8322,7 +8321,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -8330,7 +8329,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -8338,10 +8337,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -8349,7 +8348,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8357,7 +8356,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8365,12 +8364,12 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
         <v>20</v>
       </c>
@@ -8408,7 +8407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
         <v>36</v>
       </c>
@@ -8424,7 +8423,7 @@
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
         <v>28</v>
       </c>
@@ -8442,7 +8441,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="5" t="s">
         <v>30</v>
       </c>
@@ -8460,7 +8459,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -8468,12 +8467,12 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>6</v>
       </c>
@@ -8493,7 +8492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="8" t="s">
         <v>23</v>
       </c>
@@ -8511,7 +8510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="8" t="s">
         <v>38</v>
       </c>
@@ -8527,7 +8526,7 @@
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="6" t="s">
         <v>40</v>
       </c>
@@ -8543,7 +8542,7 @@
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="5" t="s">
         <v>42</v>
       </c>
@@ -8559,7 +8558,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="8" t="s">
         <v>44</v>
       </c>
@@ -8575,7 +8574,7 @@
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="6" t="s">
         <v>28</v>
       </c>
@@ -8593,7 +8592,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="5" t="s">
         <v>30</v>
       </c>
@@ -8611,15 +8610,15 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="9"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -8639,7 +8638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="8" t="s">
         <v>26</v>
       </c>
@@ -8657,7 +8656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="8" t="s">
         <v>38</v>
       </c>
@@ -8673,7 +8672,7 @@
       </c>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
         <v>40</v>
       </c>
@@ -8689,7 +8688,7 @@
       </c>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="5" t="s">
         <v>42</v>
       </c>
@@ -8705,7 +8704,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="8" t="s">
         <v>44</v>
       </c>
@@ -8721,7 +8720,7 @@
       </c>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="6" t="s">
         <v>47</v>
       </c>
@@ -8739,7 +8738,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="6" t="s">
         <v>28</v>
       </c>
@@ -8757,7 +8756,7 @@
       </c>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="5" t="s">
         <v>30</v>
       </c>
@@ -8775,12 +8774,12 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="4" t="s">
         <v>6</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="8" t="s">
         <v>47</v>
       </c>
@@ -8818,7 +8817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="8" t="s">
         <v>38</v>
       </c>
@@ -8834,7 +8833,7 @@
       </c>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="6" t="s">
         <v>40</v>
       </c>
@@ -8850,7 +8849,7 @@
       </c>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="5" t="s">
         <v>42</v>
       </c>
@@ -8866,7 +8865,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8" t="s">
         <v>44</v>
       </c>
@@ -8882,7 +8881,7 @@
       </c>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
@@ -8900,7 +8899,7 @@
       </c>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="5" t="s">
         <v>30</v>
       </c>
@@ -8929,17 +8928,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B037E73F-D282-4610-BD12-59EC4C1944C2}">
   <dimension ref="C3:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="23" spans="13:13">
+    <row r="23" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M23" s="9"/>
     </row>
   </sheetData>
@@ -8953,12 +8952,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA63495F-278F-499B-9C71-2AB73505352B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/面談予約sys設計書_最新.xlsx
+++ b/面談予約sys設計書_最新.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEB79BB-A17A-4385-BD73-C74BCDA509A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{8BEB79BB-A17A-4385-BD73-C74BCDA509A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D75B3446-7282-4640-A6F9-BBA997B82853}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="8700" firstSheet="2" activeTab="2" xr2:uid="{8EFF6374-FE84-406B-8CFA-A29E539342B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="8700" firstSheet="2" activeTab="1" xr2:uid="{8EFF6374-FE84-406B-8CFA-A29E539342B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース図" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="49">
   <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
@@ -89,8 +89,7 @@
     <t>KEY_ATTRIBUTE</t>
   </si>
   <si>
-    <t>reservation_id</t>
-    <phoneticPr fontId="1"/>
+    <t>id</t>
   </si>
   <si>
     <t>NO</t>
@@ -126,8 +125,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FK times.time_id</t>
-    <phoneticPr fontId="1"/>
+    <t>FK times.id</t>
   </si>
   <si>
     <t>user_id</t>
@@ -138,16 +136,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FK users.user_id</t>
-    <phoneticPr fontId="1"/>
+    <t>FK users.id</t>
   </si>
   <si>
     <t>interviewer_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FK interviewers.interviwer_id</t>
-    <phoneticPr fontId="1"/>
+    <t>FK interviewers.id</t>
   </si>
   <si>
     <t>created_at</t>
@@ -163,10 +159,6 @@
   </si>
   <si>
     <t>reservation_pastsテーブル</t>
-  </si>
-  <si>
-    <t>past_id</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>timesテーブル</t>
@@ -229,8 +221,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FK managers.manager_id</t>
-    <phoneticPr fontId="1"/>
+    <t>FK managers.id</t>
   </si>
   <si>
     <t>managersテーブル</t>
@@ -241,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7587,7 +7578,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7889,31 +7880,31 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:13">
       <c r="M19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:13">
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:13">
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:13">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7929,11 +7920,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B610B9-D73B-4794-9165-DF8D2754D15B}">
   <dimension ref="B2:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
@@ -7943,7 +7934,7 @@
     <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -7953,7 +7944,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7961,7 +7952,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -7981,7 +7972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -7999,7 +7990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -8015,7 +8006,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
@@ -8031,7 +8022,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -8049,7 +8040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
@@ -8067,7 +8058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -8085,7 +8076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
@@ -8103,7 +8094,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -8121,7 +8112,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8129,7 +8120,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8137,7 +8128,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -8147,7 +8138,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -8155,7 +8146,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7">
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
@@ -8175,9 +8166,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7">
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -8193,7 +8184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7">
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -8209,7 +8200,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7">
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
@@ -8227,7 +8218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -8245,7 +8236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -8263,7 +8254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7">
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -8281,7 +8272,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
@@ -8299,7 +8290,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -8307,13 +8298,13 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7">
       <c r="B28" s="7"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -8321,7 +8312,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -8329,7 +8320,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -8337,10 +8328,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7">
       <c r="B37" s="7"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -8348,7 +8339,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8356,7 +8347,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8364,12 +8355,12 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7">
       <c r="B46" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7">
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
@@ -8389,9 +8380,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7">
       <c r="B49" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
@@ -8401,15 +8392,15 @@
         <v>24</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="8" t="s">
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="8" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
@@ -8423,7 +8414,7 @@
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7">
       <c r="B51" s="6" t="s">
         <v>28</v>
       </c>
@@ -8441,7 +8432,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7">
       <c r="B52" s="5" t="s">
         <v>30</v>
       </c>
@@ -8459,7 +8450,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -8467,12 +8458,12 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7">
       <c r="B56" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7">
       <c r="B58" s="4" t="s">
         <v>6</v>
       </c>
@@ -8492,9 +8483,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7">
       <c r="B59" s="8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -8504,15 +8495,15 @@
         <v>24</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7">
       <c r="B60" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
@@ -8522,13 +8513,13 @@
         <v>24</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7">
       <c r="B61" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="6">
         <v>3</v>
@@ -8538,13 +8529,13 @@
         <v>24</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7">
       <c r="B62" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="10">
         <v>4</v>
@@ -8554,13 +8545,13 @@
         <v>13</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7">
       <c r="B63" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" s="8">
         <v>5</v>
@@ -8570,11 +8561,11 @@
         <v>24</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7">
       <c r="B64" s="6" t="s">
         <v>28</v>
       </c>
@@ -8592,7 +8583,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7">
       <c r="B65" s="5" t="s">
         <v>30</v>
       </c>
@@ -8610,15 +8601,15 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7">
       <c r="B66" s="9"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7">
       <c r="B68" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7">
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -8638,9 +8629,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7">
       <c r="B71" s="8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C71" s="8">
         <v>1</v>
@@ -8650,15 +8641,15 @@
         <v>24</v>
       </c>
       <c r="F71" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G71" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7">
       <c r="B72" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C72" s="8">
         <v>2</v>
@@ -8668,13 +8659,13 @@
         <v>24</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7">
       <c r="B73" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" s="6">
         <v>3</v>
@@ -8684,13 +8675,13 @@
         <v>24</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7">
       <c r="B74" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" s="10">
         <v>4</v>
@@ -8700,13 +8691,13 @@
         <v>13</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7">
       <c r="B75" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75" s="8">
         <v>5</v>
@@ -8716,13 +8707,13 @@
         <v>24</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7">
       <c r="B76" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" s="6">
         <v>6</v>
@@ -8735,10 +8726,10 @@
         <v>21</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7">
       <c r="B77" s="6" t="s">
         <v>28</v>
       </c>
@@ -8756,7 +8747,7 @@
       </c>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7">
       <c r="B78" s="5" t="s">
         <v>30</v>
       </c>
@@ -8774,12 +8765,12 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7">
       <c r="B81" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7">
       <c r="B83" s="4" t="s">
         <v>6</v>
       </c>
@@ -8799,9 +8790,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7">
       <c r="B84" s="8" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C84" s="8">
         <v>1</v>
@@ -8811,15 +8802,15 @@
         <v>24</v>
       </c>
       <c r="F84" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7">
       <c r="B85" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85" s="8">
         <v>2</v>
@@ -8829,13 +8820,13 @@
         <v>24</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86" s="6">
         <v>3</v>
@@ -8845,13 +8836,13 @@
         <v>24</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7">
       <c r="B87" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C87" s="10">
         <v>4</v>
@@ -8861,13 +8852,13 @@
         <v>13</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7">
       <c r="B88" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88" s="8">
         <v>5</v>
@@ -8877,11 +8868,11 @@
         <v>24</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
@@ -8899,7 +8890,7 @@
       </c>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7">
       <c r="B90" s="5" t="s">
         <v>30</v>
       </c>
@@ -8928,17 +8919,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B037E73F-D282-4610-BD12-59EC4C1944C2}">
   <dimension ref="C3:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:5">
       <c r="C3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="13:13">
       <c r="M23" s="9"/>
     </row>
   </sheetData>
@@ -8956,7 +8947,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/面談予約sys設計書_最新.xlsx
+++ b/面談予約sys設計書_最新.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{8BEB79BB-A17A-4385-BD73-C74BCDA509A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D75B3446-7282-4640-A6F9-BBA997B82853}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2859805-D677-4C64-8420-35143AAACEA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="8700" firstSheet="2" activeTab="1" xr2:uid="{8EFF6374-FE84-406B-8CFA-A29E539342B4}"/>
   </bookViews>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -232,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7578,7 +7567,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7880,31 +7869,31 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
       <c r="M19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7921,10 +7910,10 @@
   <dimension ref="B2:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
@@ -7934,7 +7923,7 @@
     <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -7944,7 +7933,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7952,7 +7941,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -7972,7 +7961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -7990,7 +7979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -8006,7 +7995,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
@@ -8018,11 +8007,11 @@
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -8040,7 +8029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
@@ -8058,7 +8047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -8076,7 +8065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
@@ -8094,7 +8083,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -8112,7 +8101,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8120,7 +8109,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8128,7 +8117,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -8138,7 +8127,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -8146,7 +8135,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
@@ -8166,7 +8155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
@@ -8184,7 +8173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -8196,11 +8185,11 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
@@ -8218,7 +8207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -8236,7 +8225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -8254,7 +8243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -8272,7 +8261,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
@@ -8290,7 +8279,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -8298,13 +8287,13 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -8312,7 +8301,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -8320,7 +8309,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -8328,10 +8317,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -8339,7 +8328,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8347,7 +8336,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8355,12 +8344,12 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
@@ -8380,7 +8369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
         <v>12</v>
       </c>
@@ -8398,7 +8387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
         <v>35</v>
       </c>
@@ -8414,7 +8403,7 @@
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
         <v>28</v>
       </c>
@@ -8432,7 +8421,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="5" t="s">
         <v>30</v>
       </c>
@@ -8450,7 +8439,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -8458,12 +8447,12 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>6</v>
       </c>
@@ -8483,7 +8472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="8" t="s">
         <v>12</v>
       </c>
@@ -8501,7 +8490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="8" t="s">
         <v>37</v>
       </c>
@@ -8517,7 +8506,7 @@
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="6" t="s">
         <v>39</v>
       </c>
@@ -8533,7 +8522,7 @@
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="5" t="s">
         <v>41</v>
       </c>
@@ -8549,7 +8538,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="8" t="s">
         <v>43</v>
       </c>
@@ -8565,7 +8554,7 @@
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="6" t="s">
         <v>28</v>
       </c>
@@ -8583,7 +8572,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="5" t="s">
         <v>30</v>
       </c>
@@ -8601,15 +8590,15 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="9"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -8629,7 +8618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="8" t="s">
         <v>12</v>
       </c>
@@ -8647,7 +8636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="8" t="s">
         <v>37</v>
       </c>
@@ -8663,7 +8652,7 @@
       </c>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
         <v>39</v>
       </c>
@@ -8679,7 +8668,7 @@
       </c>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="5" t="s">
         <v>41</v>
       </c>
@@ -8695,7 +8684,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
@@ -8711,7 +8700,7 @@
       </c>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="6" t="s">
         <v>46</v>
       </c>
@@ -8729,7 +8718,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="6" t="s">
         <v>28</v>
       </c>
@@ -8747,7 +8736,7 @@
       </c>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="5" t="s">
         <v>30</v>
       </c>
@@ -8765,12 +8754,12 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="4" t="s">
         <v>6</v>
       </c>
@@ -8790,7 +8779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="8" t="s">
         <v>12</v>
       </c>
@@ -8808,7 +8797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="8" t="s">
         <v>37</v>
       </c>
@@ -8824,7 +8813,7 @@
       </c>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="6" t="s">
         <v>39</v>
       </c>
@@ -8840,7 +8829,7 @@
       </c>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="5" t="s">
         <v>41</v>
       </c>
@@ -8856,7 +8845,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8" t="s">
         <v>43</v>
       </c>
@@ -8872,7 +8861,7 @@
       </c>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
@@ -8890,7 +8879,7 @@
       </c>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="5" t="s">
         <v>30</v>
       </c>
@@ -8923,13 +8912,13 @@
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="23" spans="13:13">
+    <row r="23" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M23" s="9"/>
     </row>
   </sheetData>
@@ -8947,7 +8936,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/面談予約sys設計書_最新.xlsx
+++ b/面談予約sys設計書_最新.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2859805-D677-4C64-8420-35143AAACEA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D2859805-D677-4C64-8420-35143AAACEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75612108-6F9F-4F1F-81EC-58563C89026C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="8700" firstSheet="2" activeTab="1" xr2:uid="{8EFF6374-FE84-406B-8CFA-A29E539342B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="8700" firstSheet="1" activeTab="1" xr2:uid="{8EFF6374-FE84-406B-8CFA-A29E539342B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース図" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,10 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>time_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,6 +147,10 @@
   </si>
   <si>
     <t>current_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -221,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7521,23 +7532,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2AA709-9C34-3161-69B1-AE6E2FB4B7CD}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60846469-6156-FE37-54AE-82EDFAD04008}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7553,8 +7564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="2876550"/>
-          <a:ext cx="4572000" cy="2733675"/>
+          <a:off x="8229600" y="1666875"/>
+          <a:ext cx="4572000" cy="3143250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7567,7 +7578,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7869,31 +7880,31 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:13">
       <c r="M19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:13">
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:13">
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:13">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7910,10 +7921,10 @@
   <dimension ref="B2:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
@@ -7923,7 +7934,7 @@
     <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -7933,7 +7944,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7941,7 +7952,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -7961,7 +7972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -7979,7 +7990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -7995,7 +8006,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
@@ -8011,9 +8022,9 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
@@ -8023,33 +8034,33 @@
         <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>6</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -8059,31 +8070,31 @@
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="6">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -8091,17 +8102,17 @@
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8109,7 +8120,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8117,7 +8128,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -8127,7 +8138,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -8135,7 +8146,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7">
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
@@ -8155,7 +8166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7">
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
@@ -8173,7 +8184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7">
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -8189,9 +8200,9 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7">
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
@@ -8201,33 +8212,33 @@
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="6" t="s">
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C21" s="6">
         <v>6</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="6" t="s">
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C22" s="5">
         <v>7</v>
@@ -8237,31 +8248,31 @@
         <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C23" s="6">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
@@ -8269,17 +8280,17 @@
         <v>9</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -8287,13 +8298,13 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7">
       <c r="B28" s="7"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -8301,7 +8312,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -8309,7 +8320,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -8317,10 +8328,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7">
       <c r="B37" s="7"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -8328,7 +8339,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8336,7 +8347,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8344,12 +8355,12 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7">
       <c r="B46" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7">
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
@@ -8369,7 +8380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7">
       <c r="B49" s="8" t="s">
         <v>12</v>
       </c>
@@ -8378,7 +8389,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>33</v>
@@ -8387,7 +8398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7">
       <c r="B50" s="8" t="s">
         <v>35</v>
       </c>
@@ -8396,32 +8407,32 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7">
       <c r="B51" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="6">
         <v>8</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7">
       <c r="B52" s="5" t="s">
         <v>30</v>
       </c>
@@ -8429,17 +8440,17 @@
         <v>9</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -8447,12 +8458,12 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7">
       <c r="B56" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7">
       <c r="B58" s="4" t="s">
         <v>6</v>
       </c>
@@ -8472,7 +8483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7">
       <c r="B59" s="8" t="s">
         <v>12</v>
       </c>
@@ -8481,7 +8492,7 @@
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>33</v>
@@ -8490,7 +8501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7">
       <c r="B60" s="8" t="s">
         <v>37</v>
       </c>
@@ -8499,14 +8510,14 @@
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7">
       <c r="B61" s="6" t="s">
         <v>39</v>
       </c>
@@ -8515,14 +8526,14 @@
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7">
       <c r="B62" s="5" t="s">
         <v>41</v>
       </c>
@@ -8538,7 +8549,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7">
       <c r="B63" s="8" t="s">
         <v>43</v>
       </c>
@@ -8547,32 +8558,32 @@
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7">
       <c r="B64" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="6">
         <v>6</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7">
       <c r="B65" s="5" t="s">
         <v>30</v>
       </c>
@@ -8580,25 +8591,25 @@
         <v>7</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7">
       <c r="B66" s="9"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7">
       <c r="B68" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7">
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -8618,7 +8629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7">
       <c r="B71" s="8" t="s">
         <v>12</v>
       </c>
@@ -8627,7 +8638,7 @@
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>33</v>
@@ -8636,7 +8647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7">
       <c r="B72" s="8" t="s">
         <v>37</v>
       </c>
@@ -8645,14 +8656,14 @@
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7">
       <c r="B73" s="6" t="s">
         <v>39</v>
       </c>
@@ -8661,14 +8672,14 @@
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7">
       <c r="B74" s="5" t="s">
         <v>41</v>
       </c>
@@ -8684,7 +8695,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7">
       <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
@@ -8693,14 +8704,14 @@
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7">
       <c r="B76" s="6" t="s">
         <v>46</v>
       </c>
@@ -8709,34 +8720,34 @@
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7">
       <c r="B77" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="6">
         <v>7</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7">
       <c r="B78" s="5" t="s">
         <v>30</v>
       </c>
@@ -8744,22 +8755,22 @@
         <v>8</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7">
       <c r="B81" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7">
       <c r="B83" s="4" t="s">
         <v>6</v>
       </c>
@@ -8779,7 +8790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7">
       <c r="B84" s="8" t="s">
         <v>12</v>
       </c>
@@ -8788,7 +8799,7 @@
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>33</v>
@@ -8797,7 +8808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7">
       <c r="B85" s="8" t="s">
         <v>37</v>
       </c>
@@ -8806,14 +8817,14 @@
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
         <v>39</v>
       </c>
@@ -8822,14 +8833,14 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7">
       <c r="B87" s="5" t="s">
         <v>41</v>
       </c>
@@ -8845,7 +8856,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7">
       <c r="B88" s="8" t="s">
         <v>43</v>
       </c>
@@ -8854,32 +8865,32 @@
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" s="6">
         <v>6</v>
       </c>
       <c r="D89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7">
       <c r="B90" s="5" t="s">
         <v>30</v>
       </c>
@@ -8887,13 +8898,13 @@
         <v>7</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G90" s="5"/>
     </row>
@@ -8912,13 +8923,13 @@
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:5">
       <c r="C3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="13:13">
       <c r="M23" s="9"/>
     </row>
   </sheetData>
@@ -8932,11 +8943,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA63495F-278F-499B-9C71-2AB73505352B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="K4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
